--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Angptl3-Itgav.xlsx
@@ -543,10 +543,10 @@
         <v>7.204333999999999</v>
       </c>
       <c r="I2">
-        <v>0.5723125574599714</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="J2">
-        <v>0.5723125574599716</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N2">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P2">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q2">
-        <v>32.278463753282</v>
+        <v>21.18229649518089</v>
       </c>
       <c r="R2">
-        <v>290.506173779538</v>
+        <v>190.640668456628</v>
       </c>
       <c r="S2">
-        <v>0.0513540758411102</v>
+        <v>0.02859981413225822</v>
       </c>
       <c r="T2">
-        <v>0.05135407584111021</v>
+        <v>0.02859981413225822</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,10 +605,10 @@
         <v>7.204333999999999</v>
       </c>
       <c r="I3">
-        <v>0.5723125574599714</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="J3">
-        <v>0.5723125574599716</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,10 +623,10 @@
         <v>164.134605</v>
       </c>
       <c r="O3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P3">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q3">
         <v>131.3867239308966</v>
@@ -635,10 +635,10 @@
         <v>1182.48051537807</v>
       </c>
       <c r="S3">
-        <v>0.2090323702154577</v>
+        <v>0.1773951131656029</v>
       </c>
       <c r="T3">
-        <v>0.2090323702154577</v>
+        <v>0.1773951131656029</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,10 +667,10 @@
         <v>7.204333999999999</v>
       </c>
       <c r="I4">
-        <v>0.5723125574599714</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="J4">
-        <v>0.5723125574599716</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N4">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P4">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q4">
-        <v>43.14324701486044</v>
+        <v>52.61124199329555</v>
       </c>
       <c r="R4">
-        <v>388.2892231337439</v>
+        <v>473.50117793966</v>
       </c>
       <c r="S4">
-        <v>0.06863962288191669</v>
+        <v>0.07103440094976643</v>
       </c>
       <c r="T4">
-        <v>0.06863962288191672</v>
+        <v>0.07103440094976643</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,10 +729,10 @@
         <v>7.204333999999999</v>
       </c>
       <c r="I5">
-        <v>0.5723125574599714</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="J5">
-        <v>0.5723125574599716</v>
+        <v>0.4458169960283037</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N5">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P5">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q5">
-        <v>152.9170561982467</v>
+        <v>125.0116664089687</v>
       </c>
       <c r="R5">
-        <v>1376.25350578422</v>
+        <v>1125.104997680718</v>
       </c>
       <c r="S5">
-        <v>0.2432864885214868</v>
+        <v>0.1687876677806761</v>
       </c>
       <c r="T5">
-        <v>0.2432864885214869</v>
+        <v>0.1687876677806761</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.8143563333333333</v>
+        <v>1.399743666666667</v>
       </c>
       <c r="H6">
-        <v>2.443069</v>
+        <v>4.199231</v>
       </c>
       <c r="I6">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146963</v>
       </c>
       <c r="J6">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N6">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P6">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q6">
-        <v>10.945982538187</v>
+        <v>12.34664524073356</v>
       </c>
       <c r="R6">
-        <v>98.51384284368301</v>
+        <v>111.119807166602</v>
       </c>
       <c r="S6">
-        <v>0.01741473267495167</v>
+        <v>0.01667013579581636</v>
       </c>
       <c r="T6">
-        <v>0.01741473267495167</v>
+        <v>0.01667013579581635</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.8143563333333333</v>
+        <v>1.399743666666667</v>
       </c>
       <c r="H7">
-        <v>2.443069</v>
+        <v>4.199231</v>
       </c>
       <c r="I7">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146963</v>
       </c>
       <c r="J7">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>164.134605</v>
       </c>
       <c r="O7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P7">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q7">
-        <v>44.55468503363834</v>
+        <v>76.58212460986167</v>
       </c>
       <c r="R7">
-        <v>400.992165302745</v>
+        <v>689.239121488755</v>
       </c>
       <c r="S7">
-        <v>0.07088517879236415</v>
+        <v>0.1033992952649763</v>
       </c>
       <c r="T7">
-        <v>0.07088517879236417</v>
+        <v>0.1033992952649763</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.8143563333333333</v>
+        <v>1.399743666666667</v>
       </c>
       <c r="H8">
-        <v>2.443069</v>
+        <v>4.199231</v>
       </c>
       <c r="I8">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146963</v>
       </c>
       <c r="J8">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146962</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N8">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P8">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q8">
-        <v>14.63035019494489</v>
+        <v>30.66581287413223</v>
       </c>
       <c r="R8">
-        <v>131.673151754504</v>
+        <v>275.99231586719</v>
       </c>
       <c r="S8">
-        <v>0.02327645204046639</v>
+        <v>0.04140422397610781</v>
       </c>
       <c r="T8">
-        <v>0.02327645204046639</v>
+        <v>0.0414042239761078</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,16 +971,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.8143563333333333</v>
+        <v>1.399743666666667</v>
       </c>
       <c r="H9">
-        <v>2.443069</v>
+        <v>4.199231</v>
       </c>
       <c r="I9">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146963</v>
       </c>
       <c r="J9">
-        <v>0.1940774910548533</v>
+        <v>0.2598558798146962</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N9">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P9">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q9">
-        <v>51.85585781686334</v>
+        <v>72.86625869180966</v>
       </c>
       <c r="R9">
-        <v>466.70272035177</v>
+        <v>655.796328226287</v>
       </c>
       <c r="S9">
-        <v>0.08250112754707102</v>
+        <v>0.09838222477779575</v>
       </c>
       <c r="T9">
-        <v>0.08250112754707105</v>
+        <v>0.09838222477779575</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.9802360000000001</v>
+        <v>1.585427</v>
       </c>
       <c r="H10">
-        <v>2.940708</v>
+        <v>4.756281</v>
       </c>
       <c r="I10">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="J10">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.441269</v>
+        <v>8.820647333333334</v>
       </c>
       <c r="N10">
-        <v>40.323807</v>
+        <v>26.461942</v>
       </c>
       <c r="O10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="P10">
-        <v>0.08973082133481231</v>
+        <v>0.06415146660411865</v>
       </c>
       <c r="Q10">
-        <v>13.175615759484</v>
+        <v>13.98449243974467</v>
       </c>
       <c r="R10">
-        <v>118.580541835356</v>
+        <v>125.860431957702</v>
       </c>
       <c r="S10">
-        <v>0.02096201281875042</v>
+        <v>0.01888151667604407</v>
       </c>
       <c r="T10">
-        <v>0.02096201281875043</v>
+        <v>0.01888151667604407</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.9802360000000001</v>
+        <v>1.585427</v>
       </c>
       <c r="H11">
-        <v>2.940708</v>
+        <v>4.756281</v>
       </c>
       <c r="I11">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="J11">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>164.134605</v>
       </c>
       <c r="O11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202897</v>
       </c>
       <c r="P11">
-        <v>0.3652416280068742</v>
+        <v>0.3979101621202898</v>
       </c>
       <c r="Q11">
-        <v>53.63021622226</v>
+        <v>86.74114480044499</v>
       </c>
       <c r="R11">
-        <v>482.67194600034</v>
+        <v>780.6703032040049</v>
       </c>
       <c r="S11">
-        <v>0.08532407899905227</v>
+        <v>0.1171157536897105</v>
       </c>
       <c r="T11">
-        <v>0.08532407899905228</v>
+        <v>0.1171157536897105</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.9802360000000001</v>
+        <v>1.585427</v>
       </c>
       <c r="H12">
-        <v>2.940708</v>
+        <v>4.756281</v>
       </c>
       <c r="I12">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="J12">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>17.96553866666666</v>
+        <v>21.90816333333333</v>
       </c>
       <c r="N12">
-        <v>53.89661599999999</v>
+        <v>65.72449</v>
       </c>
       <c r="O12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="P12">
-        <v>0.119933805378222</v>
+        <v>0.1593353362087987</v>
       </c>
       <c r="Q12">
-        <v>17.61046776045866</v>
+        <v>34.73379366907667</v>
       </c>
       <c r="R12">
-        <v>158.494209844128</v>
+        <v>312.60414302169</v>
       </c>
       <c r="S12">
-        <v>0.02801773045583888</v>
+        <v>0.04689671128292443</v>
       </c>
       <c r="T12">
-        <v>0.02801773045583889</v>
+        <v>0.04689671128292442</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.9802360000000001</v>
+        <v>1.585427</v>
       </c>
       <c r="H13">
-        <v>2.940708</v>
+        <v>4.756281</v>
       </c>
       <c r="I13">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="J13">
-        <v>0.2336099514851752</v>
+        <v>0.294327124157</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>63.67711000000001</v>
+        <v>52.056859</v>
       </c>
       <c r="N13">
-        <v>191.03133</v>
+        <v>156.170577</v>
       </c>
       <c r="O13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667928</v>
       </c>
       <c r="P13">
-        <v>0.4250937452800915</v>
+        <v>0.3786030350667929</v>
       </c>
       <c r="Q13">
-        <v>62.41859559796001</v>
+        <v>82.53234979379299</v>
       </c>
       <c r="R13">
-        <v>561.7673603816402</v>
+        <v>742.7911481441369</v>
       </c>
       <c r="S13">
-        <v>0.09930612921153359</v>
+        <v>0.111433142508321</v>
       </c>
       <c r="T13">
-        <v>0.09930612921153362</v>
+        <v>0.111433142508321</v>
       </c>
     </row>
   </sheetData>
